--- a/Documentation/TheRecipeBox_database_layout.xlsx
+++ b/Documentation/TheRecipeBox_database_layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\TheRecipeBox\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E52B5FD-ACC9-4F85-9DB5-C0A994C021E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDDFAF3-203A-40B3-854F-534226A5B81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C994AD84-E3F3-4C7B-BCAA-6DA1D0BC690B}"/>
   </bookViews>
@@ -530,15 +530,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -578,13 +569,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1025,28 +1025,28 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="9" customWidth="1"/>
     <col min="8" max="8" width="49.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="11" bestFit="1"/>
-    <col min="10" max="10" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="61.140625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" bestFit="1"/>
+    <col min="10" max="10" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="61.140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1094,345 +1094,345 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="17"/>
+      <c r="M6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="17" t="s">
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="17" t="s">
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
       <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="23"/>
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -1440,350 +1440,350 @@
         <v>54</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="22" t="s">
+      <c r="J13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="11"/>
+      <c r="M14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="G16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="17" t="s">
+      <c r="K16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="11" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="G17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <v>0</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="17" t="s">
+      <c r="K18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="G19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <v>0</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="17" t="s">
+      <c r="K19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="11" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <v>0</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="G21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <v>0</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="17" t="s">
+      <c r="K21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="G22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="17" t="s">
+      <c r="J22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1791,140 +1791,140 @@
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="G24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="17" t="s">
+      <c r="J24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="G25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="17" t="s">
+      <c r="J25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="G26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="17" t="s">
+      <c r="J26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" t="s">
         <v>93</v>
       </c>
@@ -1932,527 +1932,527 @@
         <v>40</v>
       </c>
       <c r="F27"/>
-      <c r="G27" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="G27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="22" t="s">
+      <c r="J27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="L27" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="N27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="11" t="s">
+      <c r="G28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="17" t="s">
+      <c r="J28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="11" t="s">
+      <c r="G29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="17" t="s">
+      <c r="J29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="25" t="s">
+      <c r="G30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="17" t="s">
+      <c r="K30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="18" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="25" t="s">
+      <c r="G31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="17" t="s">
+      <c r="K31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="G32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="17" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="25" t="s">
+      <c r="G33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="17" t="s">
+      <c r="K33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="G34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="17" t="s">
+      <c r="K34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="18" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="25" t="s">
+      <c r="G36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="17" t="s">
+      <c r="K36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="11" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="G37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="17" t="s">
+      <c r="J37" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="11" t="s">
+      <c r="G38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="17" t="s">
+      <c r="J38" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="M38" s="15" t="s">
+      <c r="M38" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="G39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="17" t="s">
+      <c r="J39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="M39" s="15" t="s">
+      <c r="M39" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="11" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="11" t="s">
+      <c r="G40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40" s="17" t="s">
+      <c r="J40" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M40" s="15" t="s">
+      <c r="M40" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="9"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="13"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="25" t="s">
+      <c r="G42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="17" t="s">
+      <c r="K42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="M42" s="15" t="s">
+      <c r="M42" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="11" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="G43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="17" t="s">
+      <c r="J43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="M43" s="15" t="s">
+      <c r="M43" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="9"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45"/>
@@ -3311,22 +3311,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="B35:B41"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:K44">
     <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="N/A">
